--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-04_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-04_beg.xlsx
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">If memory serves me correctly, and I don’t trust it to, the old man’s name was Ivan Iziaslav.
+    <t xml:space="preserve">If memory serves me correctly, and I don't trust it to, the old man's name was Ivan Iziaslav.
 </t>
   </si>
   <si>
@@ -560,15 +560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Sir, I’m...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] Whatcha here for? Don’t like the look of your clothes. Some old vet, are you? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] Get lost! There’s nothing even left here. You lot stole it, all of it! And what you couldn’t steal, you burned!   
+    <t xml:space="preserve">[name="Talulah"] Sir, I'm...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Whatcha here for? Don't like the look of your clothes. Some old vet, are you? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Get lost! There's nothing even left here. You lot stole it, all of it! And what you couldn't steal, you burned!   
 </t>
   </si>
   <si>
@@ -576,27 +576,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] No, sir, I’m here to tell you that the Infected Patrol Unit is sweeping this area today.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] Then let ‘em sweep! Let ‘em kill us all, why don’t you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] We built our pathetic, unlivable village all the way out here, and they still come for us! What else can we do but let ‘em!? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Sir. You can hide yourselves, and I’ll talk to them. Or I can conceal myself... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] And who’re you? I always said, you military noble bunch, no matter what you pretend! You’re all just out for our lives—  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] Hah, you’re not quite their sort. You actually talk with us! And they think we’re barely even worth whipping! 
+    <t xml:space="preserve">[name="Talulah"] No, sir, I'm here to tell you that the Infected Patrol Unit is sweeping this area today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Then let 'em sweep! Let 'em kill us all, why don't you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] We built our pathetic, unlivable village all the way out here, and they still come for us! What else can we do but let 'em!? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Sir. You can hide yourselves, and I'll talk to them. Or I can conceal myself... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] And who're you? I always said, you military noble bunch, no matter what you pretend! You're all just out for our lives—  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Hah, you're not quite their sort. You actually talk with us! And they think we're barely even worth whipping! 
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"]  It’s no bad thing to know your own damnation.
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  It's no bad thing to know your own damnation.
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"]  ...Destitute and lousy. Bad physique. You wouldn’t be much use even if we sent you to the mines. 
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  ...Destitute and lousy. Bad physique. You wouldn't be much use even if we sent you to the mines. 
 </t>
   </si>
   <si>
@@ -640,11 +640,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected"] ...Sorry, Mr. Patrolman! This was for whoever that was just a minute ago! I don’t know where she’s gone now, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"]  Even burdenbeasts are worth more than you Infected. They can at least move goods. Your existence is a waste of His Majesty’s land!
+    <t xml:space="preserve">[name="Infected"] ...Sorry, Mr. Patrolman! This was for whoever that was just a minute ago! I don't know where she's gone now, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  Even burdenbeasts are worth more than you Infected. They can at least move goods. Your existence is a waste of His Majesty's land!
 </t>
   </si>
   <si>
@@ -684,7 +684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] If you could let us die peacefully on our own terms, we’d hardly even be upset about it...
+    <t xml:space="preserve">[name="Talulah"] If you could let us die peacefully on our own terms, we'd hardly even be upset about it...
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] They want to decide our fates. Control us. Perhaps our lives aren’t worth much, but do you think you’d be worth a single gold coin?
+    <t xml:space="preserve">[name="Talulah"] They want to decide our fates. Control us. Perhaps our lives aren't worth much, but do you think you'd be worth a single gold coin?
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] You’re not worried that the Infected will hurt anything. No. You’ve hardly met more than a few remotely threatening Infected in your whole life.
+    <t xml:space="preserve">[name="Talulah"] You're not worried that the Infected will hurt anything. No. You've hardly met more than a few remotely threatening Infected in your whole life.
 </t>
   </si>
   <si>
@@ -720,7 +720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] With no money and no land left, they’d kick you to the floor. After all, the cities don’t even give Infected the chance to live!
+    <t xml:space="preserve">[name="Talulah"] With no money and no land left, they'd kick you to the floor. After all, the cities don't even give Infected the chance to live!
 </t>
   </si>
   <si>
